--- a/DFA/DFA-KostenBepaling.xlsx
+++ b/DFA/DFA-KostenBepaling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsen/KeuzeWelkIndexFonds/OnderzoekPerFonds/DFA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/DFA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8DF5D50E-3D54-47D7-8684-DB130947FAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979D266B-FCBC-4BBB-BA63-6CB3EAA88805}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8DF5D50E-3D54-47D7-8684-DB130947FAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61A866CA-3B32-4245-A456-97273776CEB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,10 +202,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,7 +470,7 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,8 +768,8 @@
         <v>3</v>
       </c>
       <c r="B26" s="17">
-        <f>0.29%+(D12*2.5%)-D17+D20</f>
-        <v>7.1984099036616908E-3</v>
+        <f>0.3%+(D12*2.5%)-D17+D20</f>
+        <v>7.2984099036616911E-3</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="3"/>
